--- a/results/[14_delayed_co2_pricing]_#_inv_capacity.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1291812518256879</v>
+        <v>0.1850090999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07034899999999999</v>
+        <v>0.08791902848523356</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.100143482001921</v>
+        <v>0.2072241724204126</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2124673979980791</v>
+        <v>0.1304011109248467</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6449187</v>
+        <v>0.9100542383090227</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0312376</v>
+        <v>0.08588256169097744</v>
       </c>
       <c r="N2" t="n">
-        <v>2.05987648926849</v>
+        <v>8.387250548205344</v>
       </c>
       <c r="O2" t="n">
-        <v>5.756354999355026</v>
+        <v>5.572860925603398</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.364687112201185</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2139218603692108</v>
+        <v>0.2277642275795874</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03702183813941964</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.295455540720643</v>
+        <v>0.4837123116909772</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1413964478870805</v>
+        <v>0.04498818830902257</v>
       </c>
       <c r="N2" t="n">
-        <v>4.158872030346994</v>
+        <v>9.055699121367166</v>
       </c>
       <c r="O2" t="n">
-        <v>4.900860142222762</v>
+        <v>2.957574604300432</v>
       </c>
     </row>
   </sheetData>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.009485635064692</v>
+        <v>0.2720621710968099</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.119088125212652</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9102318723579981</v>
+        <v>0.4493937760357649</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.59760935</v>
+        <v>0.1230520827199775</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3160743687795862</v>
+        <v>0.05330024124425767</v>
       </c>
       <c r="N2" t="n">
-        <v>24.89501877350665</v>
+        <v>5.054814646671876</v>
       </c>
       <c r="O2" t="n">
-        <v>16.1662072849799</v>
+        <v>2.372323717542278</v>
       </c>
     </row>
   </sheetData>

--- a/results/[14_delayed_co2_pricing]_#_inv_capacity.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1850090999999999</v>
+        <v>0.1996117116393296</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08791902848523356</v>
+        <v>0.09147347743582362</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2072241724204126</v>
+        <v>0.196337161233252</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9100542383090227</v>
+        <v>0.9093716833333334</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08588256169097744</v>
+        <v>0.08582791666666666</v>
       </c>
       <c r="N2" t="n">
-        <v>8.387250548205344</v>
+        <v>8.076984323356477</v>
       </c>
       <c r="O2" t="n">
-        <v>5.572860925603398</v>
+        <v>5.602091941527175</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.01569748571225271</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2277642275795874</v>
+        <v>0.3501989933240413</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4837123116909772</v>
+        <v>0.7880958234314523</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04498818830902257</v>
+        <v>0.08384033333333336</v>
       </c>
       <c r="N2" t="n">
-        <v>9.055699121367166</v>
+        <v>13.54405293432583</v>
       </c>
       <c r="O2" t="n">
-        <v>2.957574604300432</v>
+        <v>4.112137734330497</v>
       </c>
     </row>
   </sheetData>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2720621710968099</v>
+        <v>0.2898581252785336</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.119088125212652</v>
+        <v>0.1190881252125949</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4493937760357649</v>
+        <v>0.4976846007978426</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1230520827199775</v>
+        <v>0.06366467577070564</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05330024124425767</v>
+        <v>0.04822266666666594</v>
       </c>
       <c r="N2" t="n">
-        <v>5.054814646671876</v>
+        <v>4.564495481057364</v>
       </c>
       <c r="O2" t="n">
-        <v>2.372323717542278</v>
+        <v>2.943764624981792</v>
       </c>
     </row>
   </sheetData>

--- a/results/[14_delayed_co2_pricing]_#_inv_capacity.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_inv_capacity.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1291812518256879</v>
+        <v>0.1774173491026328</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07034899999999999</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.698886550485734</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.100143482001921</v>
+        <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.3247024241048815</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2124673979980791</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.06880566916063374</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6449187</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0312376</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.05987648926849</v>
+        <v>7.86217612746788</v>
       </c>
       <c r="O2" t="n">
-        <v>5.756354999355026</v>
+        <v>3.364628064996622</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.364687112201185</v>
+        <v>0.1784518902710296</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.220795686899256</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2139218603692108</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2403690565694545</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03702183813941964</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1393700898393662</v>
       </c>
       <c r="I2" t="n">
-        <v>1.295455540720643</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1413964478870805</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.158872030346994</v>
+        <v>26.09700856829476</v>
       </c>
       <c r="O2" t="n">
-        <v>4.900860142222762</v>
+        <v>6.646311143090882</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.9125903823652097</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.605660048695328</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.009485635064692</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.03015563704984281</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1261817221222193</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9102318723579981</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.59760935</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3160743687795862</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.89501877350665</v>
+        <v>26.02971581004623</v>
       </c>
       <c r="O2" t="n">
-        <v>16.1662072849799</v>
+        <v>7.285821150245541</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[14_delayed_co2_pricing]_#_inv_capacity.xlsx
+++ b/results/[14_delayed_co2_pricing]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1996117116393296</v>
+        <v>0.2227432864266522</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09147347743582362</v>
+        <v>0.08815080000000002</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.196337161233252</v>
+        <v>0.189642979933441</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9093716833333334</v>
+        <v>0.9094451833333335</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08582791666666666</v>
+        <v>0.08575441666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>8.076984323356477</v>
+        <v>7.471259599331491</v>
       </c>
       <c r="O2" t="n">
-        <v>5.602091941527175</v>
+        <v>5.602091941527176</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01569748571225271</v>
+        <v>0.02270198907515324</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3501989933240413</v>
+        <v>0.3403147336399065</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7880958234314523</v>
+        <v>0.7892814899108533</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08384033333333336</v>
+        <v>0.08264300000000002</v>
       </c>
       <c r="N2" t="n">
-        <v>13.54405293432583</v>
+        <v>13.4952381606138</v>
       </c>
       <c r="O2" t="n">
-        <v>4.112137734330497</v>
+        <v>4.112849370418807</v>
       </c>
     </row>
   </sheetData>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2898581252785336</v>
+        <v>0.2893501755144084</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1190881252125949</v>
+        <v>0.119088125212652</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4976846007978426</v>
+        <v>0.5555887099544932</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06366467577070564</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04822266666666594</v>
+        <v>0.04987849999999991</v>
       </c>
       <c r="N2" t="n">
-        <v>4.564495481057364</v>
+        <v>4.521470601901118</v>
       </c>
       <c r="O2" t="n">
-        <v>2.943764624981792</v>
+        <v>3.120651755786945</v>
       </c>
     </row>
   </sheetData>
